--- a/ExcelRAddIn/Tests/R Types Tests.xlsx
+++ b/ExcelRAddIn/Tests/R Types Tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\ExcelRAddIn\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3972BC0B-ADAF-4B31-950D-AE784DBB6F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4058FA-409E-40EF-B110-9A01ED6561A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" firstSheet="10" activeTab="20" xr2:uid="{5877FA5A-76F9-4C4A-95F7-F8E57366BB43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" firstSheet="2" activeTab="8" xr2:uid="{5877FA5A-76F9-4C4A-95F7-F8E57366BB43}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Types" sheetId="18" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="279">
   <si>
     <t>This</t>
   </si>
@@ -441,9 +441,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>1+0i</t>
@@ -972,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -988,6 +985,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,10 +1386,10 @@
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>193</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2">_xll.RScript.Evaluate(C2)</f>
@@ -1440,10 +1438,10 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
         <v>194</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" ref="E3">_xll.RScript.Evaluate(C3)</f>
@@ -1492,10 +1490,10 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
         <v>196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>197</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" ref="E4">_xll.RScript.Evaluate(C4)</f>
@@ -1544,10 +1542,10 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" ref="E5">_xll.RScript.Evaluate(C5)</f>
@@ -1596,10 +1594,10 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
-      </c>
-      <c r="C6" t="s">
-        <v>200</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" ref="E6">_xll.RScript.Evaluate(C6)</f>
@@ -1648,14 +1646,14 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" t="str" cm="1">
         <f t="array" ref="C8">_xll.RScript.Evaluate(B8)</f>
         <v>basic_list</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" ref="G8:G12">_xll.RScript.Evaluate("names("&amp;C8&amp;")")</f>
@@ -1669,7 +1667,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" t="str" cm="1">
         <f t="array" ref="C10">_xll.RScript.Evaluate(B10)</f>
@@ -1685,7 +1683,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="str" cm="1">
         <f t="array" ref="C11">_xll.RScript.Evaluate(B11)</f>
@@ -1708,7 +1706,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D13">
         <v>-4.4000000000000004</v>
@@ -1724,7 +1722,7 @@
         <v>-4</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" ref="H15:Q15">TRANSPOSE(_xll.RScript.Evaluate(G15))</f>
@@ -1763,7 +1761,7 @@
         <v>-3.8</v>
       </c>
       <c r="G16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" cm="1">
         <f t="array" ref="H16:Q16">TRANSPOSE(_xll.RScript.Evaluate(G16))</f>
@@ -2386,7 +2384,7 @@
         <v>logim2</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -4493,7 +4491,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xll.RScript.Evaluate(B2)</f>
@@ -4502,7 +4500,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xll.RScript.Evaluate(B3)</f>
@@ -4511,7 +4509,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4:E5">_xll.RScript.Evaluate(B4)</f>
@@ -4531,7 +4529,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" ref="D6">_xll.RScript.Evaluate(B6)</f>
@@ -4540,7 +4538,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" ref="D8">_xll.RScript.Evaluate(B8)</f>
@@ -4549,7 +4547,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" ref="D9:E10">_xll.RScript.Evaluate(B9)</f>
@@ -4569,7 +4567,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12:E13">_xll.RScript.Evaluate(B12)</f>
@@ -4589,7 +4587,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" ref="D15">_xll.RScript.Evaluate(B15)</f>
@@ -4598,7 +4596,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" ref="D16">_xll.RScript.Evaluate(B16)</f>
@@ -4607,7 +4605,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" ref="D17:E19">_xll.RScript.Evaluate(B17)</f>
@@ -4635,7 +4633,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" t="b" cm="1">
         <f t="array" ref="D21">_xll.RScript.Evaluate(B21)</f>
@@ -4664,7 +4662,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xll.RScript.Evaluate(B2)</f>
@@ -4673,7 +4671,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xll.RScript.Evaluate(B3)</f>
@@ -4682,7 +4680,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" ref="D5">_xll.RScript.Evaluate(B5)</f>
@@ -4705,7 +4703,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" ref="D9">_xll.RScript.Evaluate(B9)</f>
@@ -4714,7 +4712,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11:D13">_xll.RScript.Evaluate(B11)</f>
@@ -4733,7 +4731,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" ref="D15:D17">_xll.RScript.Evaluate(B15)</f>
@@ -4752,7 +4750,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" ref="D19">_xll.RScript.Evaluate(B19)</f>
@@ -4761,7 +4759,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" cm="1">
         <f t="array" ref="D21:F22">_xll.RScript.Evaluate(B21)</f>
@@ -4787,7 +4785,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" ref="D24:D26">_xll.RScript.Evaluate(B24)</f>
@@ -4806,7 +4804,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" ref="D28">_xll.RScript.Evaluate(B28)</f>
@@ -4815,7 +4813,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" ref="D30">_xll.RScript.Evaluate(B30)</f>
@@ -4824,7 +4822,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" ref="D32">_xll.RScript.Evaluate(B32)</f>
@@ -4833,7 +4831,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" cm="1">
         <f t="array" ref="D34:D36">_xll.RScript.Evaluate(B34)</f>
@@ -4871,7 +4869,7 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xll.RScript.Evaluate(B2)</f>
@@ -4930,7 +4928,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -5009,21 +5007,21 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>172</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>173</v>
-      </c>
-      <c r="H7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -5059,7 +5057,7 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" ref="L12">_xll.RScript.Evaluate(B12)</f>
@@ -5130,42 +5128,42 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5193,14 +5191,14 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="str" cm="1">
         <f t="array" ref="D2">_xll.RScript.Evaluate(B2)</f>
         <v>z</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="4">
         <v>18</v>
@@ -7333,7 +7331,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xll.RScript.Evaluate(B2)</f>
@@ -7361,7 +7359,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7:D16">_xll.RScript.Evaluate(B7)</f>
@@ -7415,7 +7413,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" ref="D19">_xll.RScript.Evaluate(B19)</f>
@@ -7464,7 +7462,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xll.RScript.Evaluate(B2)</f>
@@ -7473,7 +7471,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xll.RScript.Evaluate(B3)</f>
@@ -7482,7 +7480,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" ref="D5:D7">_xll.RScript.Evaluate(B5)</f>
@@ -7513,7 +7511,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10">_xll.RScript.Evaluate(B10)</f>
@@ -7522,7 +7520,7 @@
     </row>
     <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" ref="D12">_xll.RScript.Evaluate(B12)</f>
@@ -7531,7 +7529,7 @@
     </row>
     <row r="13" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" ref="D13">_xll.RScript.Evaluate(B13)</f>
@@ -7540,7 +7538,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14:E14">TRANSPOSE(_xll.RScript.Evaluate(B14))</f>
@@ -7572,7 +7570,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2:D4">_xll.RScript.Evaluate(B2)</f>
@@ -7591,7 +7589,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" ref="D6">_xll.RScript.Evaluate(B6)</f>
@@ -7600,7 +7598,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" ref="D8:D10">_xll.RScript.Evaluate(B8)</f>
@@ -7631,7 +7629,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" ref="D14">_xll.RScript.Evaluate(B14)</f>
@@ -7640,7 +7638,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">_xll.RScript.Evaluate(B15)</f>
@@ -7649,7 +7647,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="str" cm="1">
         <f t="array" ref="D16">_xll.RScript.Evaluate(B16)</f>
@@ -7658,7 +7656,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" ref="D18">_xll.RScript.Evaluate(B18)</f>
@@ -7671,7 +7669,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" ref="D20">_xll.RScript.Evaluate(B20)</f>
@@ -7684,7 +7682,7 @@
     </row>
     <row r="22" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" ref="D22">_xll.RScript.Evaluate(B22)</f>
@@ -7693,7 +7691,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" ref="D24:E26">_xll.RScript.Evaluate(D22&amp;"("&amp;B24&amp;")")</f>
@@ -7721,7 +7719,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" ref="D28:D41">_xll.RScript.Evaluate(B28)</f>
@@ -7795,7 +7793,7 @@
     </row>
     <row r="43" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" ref="D43">_xll.RScript.Evaluate(B43)</f>
@@ -7804,7 +7802,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" t="str" cm="1">
         <f t="array" ref="D45:E47">_xll.RScript.Evaluate(B45)</f>
@@ -7832,7 +7830,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" t="str" cm="1">
         <f t="array" ref="D49:D53">_xll.RScript.Evaluate(B49)</f>
@@ -8133,12 +8131,12 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xll.RScript.Evaluate(B3)</f>
@@ -8148,7 +8146,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">_xll.RScript.Evaluate(B4)</f>
@@ -8157,7 +8155,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" ref="D5">_xll.RScript.Evaluate(B5)</f>
@@ -8186,12 +8184,12 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10">_xll.RScript.Evaluate(B10)</f>
@@ -8227,7 +8225,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" t="str">
         <v>2</v>
@@ -8245,7 +8243,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" t="str">
         <v>3</v>
@@ -8281,7 +8279,7 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" ref="D17:D19">_xll.RScript.Evaluate(B17)</f>
@@ -8300,7 +8298,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" ref="D21:D23">_xll.RScript.Evaluate(B21)</f>
@@ -8319,25 +8317,25 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" t="s">
         <v>276</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>276</v>
       </c>
-      <c r="F25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>277</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>277</v>
-      </c>
-      <c r="I25" t="s">
-        <v>278</v>
-      </c>
-      <c r="J25" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
@@ -8346,25 +8344,25 @@
         <v>sales</v>
       </c>
       <c r="D27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" t="s">
         <v>226</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>228</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>229</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>230</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>231</v>
-      </c>
-      <c r="J27" t="s">
-        <v>232</v>
       </c>
       <c r="M27" t="str" cm="1">
         <f t="array" ref="M27:T327">_xll.RScript.Evaluate(B27)</f>
@@ -8394,13 +8392,13 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" t="s">
         <v>233</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>234</v>
-      </c>
-      <c r="F28" t="s">
-        <v>235</v>
       </c>
       <c r="G28">
         <v>1624</v>
@@ -8441,13 +8439,13 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" t="s">
         <v>236</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>237</v>
-      </c>
-      <c r="F29" t="s">
-        <v>238</v>
       </c>
       <c r="G29">
         <v>6706</v>
@@ -8488,13 +8486,13 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" t="s">
         <v>239</v>
-      </c>
-      <c r="E30" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" t="s">
-        <v>240</v>
       </c>
       <c r="G30">
         <v>959</v>
@@ -8535,13 +8533,13 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" t="s">
         <v>241</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>242</v>
-      </c>
-      <c r="F31" t="s">
-        <v>243</v>
       </c>
       <c r="G31">
         <v>9632</v>
@@ -8582,13 +8580,13 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" t="s">
         <v>244</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>245</v>
-      </c>
-      <c r="F32" t="s">
-        <v>246</v>
       </c>
       <c r="G32">
         <v>2100</v>
@@ -8629,13 +8627,13 @@
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G33">
         <v>8869</v>
@@ -8676,13 +8674,13 @@
     </row>
     <row r="34" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" t="s">
         <v>248</v>
-      </c>
-      <c r="F34" t="s">
-        <v>249</v>
       </c>
       <c r="G34">
         <v>2681</v>
@@ -8723,13 +8721,13 @@
     </row>
     <row r="35" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" t="s">
         <v>236</v>
       </c>
-      <c r="E35" t="s">
-        <v>237</v>
-      </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G35">
         <v>5012</v>
@@ -8770,13 +8768,13 @@
     </row>
     <row r="36" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" t="s">
         <v>251</v>
-      </c>
-      <c r="E36" t="s">
-        <v>248</v>
-      </c>
-      <c r="F36" t="s">
-        <v>252</v>
       </c>
       <c r="G36">
         <v>1281</v>
@@ -8817,13 +8815,13 @@
     </row>
     <row r="37" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G37">
         <v>4991</v>
@@ -8864,13 +8862,13 @@
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" t="s">
         <v>245</v>
-      </c>
-      <c r="F38" t="s">
-        <v>246</v>
       </c>
       <c r="G38">
         <v>1785</v>
@@ -8911,13 +8909,13 @@
     </row>
     <row r="39" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" t="s">
         <v>255</v>
-      </c>
-      <c r="E39" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" t="s">
-        <v>256</v>
       </c>
       <c r="G39">
         <v>3983</v>
@@ -8958,13 +8956,13 @@
     </row>
     <row r="40" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G40">
         <v>2646</v>
@@ -9005,13 +9003,13 @@
     </row>
     <row r="41" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" t="s">
         <v>258</v>
-      </c>
-      <c r="F41" t="s">
-        <v>259</v>
       </c>
       <c r="G41">
         <v>252</v>
@@ -9052,13 +9050,13 @@
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G42">
         <v>2464</v>
@@ -9099,13 +9097,13 @@
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G43">
         <v>2114</v>
@@ -9146,13 +9144,13 @@
     </row>
     <row r="44" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G44">
         <v>7693</v>
@@ -9193,13 +9191,13 @@
     </row>
     <row r="45" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G45">
         <v>15610</v>
@@ -9240,13 +9238,13 @@
     </row>
     <row r="46" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G46">
         <v>336</v>
@@ -9287,13 +9285,13 @@
     </row>
     <row r="47" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G47">
         <v>9443</v>
@@ -9334,13 +9332,13 @@
     </row>
     <row r="48" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G48">
         <v>8155</v>
@@ -9381,13 +9379,13 @@
     </row>
     <row r="49" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G49">
         <v>1701</v>
@@ -9428,13 +9426,13 @@
     </row>
     <row r="50" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G50">
         <v>2205</v>
@@ -9475,13 +9473,13 @@
     </row>
     <row r="51" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G51">
         <v>1771</v>
@@ -9522,13 +9520,13 @@
     </row>
     <row r="52" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G52">
         <v>2114</v>
@@ -9569,13 +9567,13 @@
     </row>
     <row r="53" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" t="s">
         <v>241</v>
       </c>
-      <c r="E53" t="s">
-        <v>242</v>
-      </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G53">
         <v>10311</v>
@@ -9616,13 +9614,13 @@
     </row>
     <row r="54" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G54">
         <v>21</v>
@@ -9663,13 +9661,13 @@
     </row>
     <row r="55" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G55">
         <v>1974</v>
@@ -9710,13 +9708,13 @@
     </row>
     <row r="56" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G56">
         <v>6314</v>
@@ -9757,13 +9755,13 @@
     </row>
     <row r="57" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G57">
         <v>4683</v>
@@ -9804,13 +9802,13 @@
     </row>
     <row r="58" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G58">
         <v>6398</v>
@@ -9851,13 +9849,13 @@
     </row>
     <row r="59" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G59">
         <v>553</v>
@@ -9898,13 +9896,13 @@
     </row>
     <row r="60" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G60">
         <v>7021</v>
@@ -9945,13 +9943,13 @@
     </row>
     <row r="61" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G61">
         <v>5817</v>
@@ -9992,13 +9990,13 @@
     </row>
     <row r="62" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G62">
         <v>3976</v>
@@ -10039,13 +10037,13 @@
     </row>
     <row r="63" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G63">
         <v>1134</v>
@@ -10086,13 +10084,13 @@
     </row>
     <row r="64" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G64">
         <v>6027</v>
@@ -10133,13 +10131,13 @@
     </row>
     <row r="65" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G65">
         <v>1904</v>
@@ -10180,13 +10178,13 @@
     </row>
     <row r="66" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G66">
         <v>3262</v>
@@ -10227,13 +10225,13 @@
     </row>
     <row r="67" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G67">
         <v>2289</v>
@@ -10274,13 +10272,13 @@
     </row>
     <row r="68" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G68">
         <v>6986</v>
@@ -10321,13 +10319,13 @@
     </row>
     <row r="69" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G69">
         <v>4417</v>
@@ -10368,13 +10366,13 @@
     </row>
     <row r="70" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G70">
         <v>1442</v>
@@ -10415,13 +10413,13 @@
     </row>
     <row r="71" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G71">
         <v>2415</v>
@@ -10462,13 +10460,13 @@
     </row>
     <row r="72" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G72">
         <v>238</v>
@@ -10509,13 +10507,13 @@
     </row>
     <row r="73" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G73">
         <v>4949</v>
@@ -10556,13 +10554,13 @@
     </row>
     <row r="74" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G74">
         <v>5075</v>
@@ -10603,13 +10601,13 @@
     </row>
     <row r="75" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G75">
         <v>9198</v>
@@ -10650,13 +10648,13 @@
     </row>
     <row r="76" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76">
         <v>3339</v>
@@ -10697,13 +10695,13 @@
     </row>
     <row r="77" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G77">
         <v>5019</v>
@@ -10744,13 +10742,13 @@
     </row>
     <row r="78" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G78">
         <v>16184</v>
@@ -10791,13 +10789,13 @@
     </row>
     <row r="79" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G79">
         <v>497</v>
@@ -10838,13 +10836,13 @@
     </row>
     <row r="80" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G80">
         <v>8211</v>
@@ -10885,13 +10883,13 @@
     </row>
     <row r="81" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G81">
         <v>6580</v>
@@ -10932,13 +10930,13 @@
     </row>
     <row r="82" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G82">
         <v>4760</v>
@@ -10979,13 +10977,13 @@
     </row>
     <row r="83" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G83">
         <v>5439</v>
@@ -11026,13 +11024,13 @@
     </row>
     <row r="84" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G84">
         <v>1463</v>
@@ -11073,13 +11071,13 @@
     </row>
     <row r="85" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G85">
         <v>7777</v>
@@ -11120,13 +11118,13 @@
     </row>
     <row r="86" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G86">
         <v>1085</v>
@@ -11167,13 +11165,13 @@
     </row>
     <row r="87" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G87">
         <v>182</v>
@@ -11214,13 +11212,13 @@
     </row>
     <row r="88" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G88">
         <v>4242</v>
@@ -11261,13 +11259,13 @@
     </row>
     <row r="89" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G89">
         <v>6118</v>
@@ -11308,13 +11306,13 @@
     </row>
     <row r="90" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G90">
         <v>2317</v>
@@ -11355,13 +11353,13 @@
     </row>
     <row r="91" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G91">
         <v>938</v>
@@ -11402,13 +11400,13 @@
     </row>
     <row r="92" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G92">
         <v>9709</v>
@@ -11449,13 +11447,13 @@
     </row>
     <row r="93" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G93">
         <v>2205</v>
@@ -11496,13 +11494,13 @@
     </row>
     <row r="94" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G94">
         <v>4487</v>
@@ -11543,13 +11541,13 @@
     </row>
     <row r="95" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G95">
         <v>2415</v>
@@ -11590,13 +11588,13 @@
     </row>
     <row r="96" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G96">
         <v>4018</v>
@@ -11637,13 +11635,13 @@
     </row>
     <row r="97" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G97">
         <v>861</v>
@@ -11684,13 +11682,13 @@
     </row>
     <row r="98" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G98">
         <v>5586</v>
@@ -11731,13 +11729,13 @@
     </row>
     <row r="99" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G99">
         <v>2226</v>
@@ -11778,13 +11776,13 @@
     </row>
     <row r="100" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G100">
         <v>14329</v>
@@ -11825,13 +11823,13 @@
     </row>
     <row r="101" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G101">
         <v>8463</v>
@@ -11872,13 +11870,13 @@
     </row>
     <row r="102" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G102">
         <v>2891</v>
@@ -11919,13 +11917,13 @@
     </row>
     <row r="103" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G103">
         <v>3773</v>
@@ -11966,13 +11964,13 @@
     </row>
     <row r="104" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" t="s">
         <v>241</v>
       </c>
-      <c r="E104" t="s">
-        <v>242</v>
-      </c>
       <c r="F104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G104">
         <v>854</v>
@@ -12013,13 +12011,13 @@
     </row>
     <row r="105" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G105">
         <v>4970</v>
@@ -12060,13 +12058,13 @@
     </row>
     <row r="106" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F106" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G106">
         <v>98</v>
@@ -12107,13 +12105,13 @@
     </row>
     <row r="107" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G107">
         <v>13391</v>
@@ -12154,13 +12152,13 @@
     </row>
     <row r="108" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G108">
         <v>8890</v>
@@ -12201,13 +12199,13 @@
     </row>
     <row r="109" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G109">
         <v>56</v>
@@ -12248,13 +12246,13 @@
     </row>
     <row r="110" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G110">
         <v>3339</v>
@@ -12295,13 +12293,13 @@
     </row>
     <row r="111" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G111">
         <v>3808</v>
@@ -12342,13 +12340,13 @@
     </row>
     <row r="112" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G112">
         <v>63</v>
@@ -12389,13 +12387,13 @@
     </row>
     <row r="113" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G113">
         <v>7812</v>
@@ -12436,13 +12434,13 @@
     </row>
     <row r="114" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
         <v>233</v>
       </c>
-      <c r="E114" t="s">
-        <v>234</v>
-      </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G114">
         <v>7693</v>
@@ -12483,13 +12481,13 @@
     </row>
     <row r="115" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F115" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G115">
         <v>973</v>
@@ -12530,13 +12528,13 @@
     </row>
     <row r="116" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G116">
         <v>567</v>
@@ -12577,13 +12575,13 @@
     </row>
     <row r="117" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G117">
         <v>2471</v>
@@ -12624,13 +12622,13 @@
     </row>
     <row r="118" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G118">
         <v>7189</v>
@@ -12671,13 +12669,13 @@
     </row>
     <row r="119" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G119">
         <v>7455</v>
@@ -12718,13 +12716,13 @@
     </row>
     <row r="120" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G120">
         <v>3108</v>
@@ -12765,13 +12763,13 @@
     </row>
     <row r="121" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E121" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G121">
         <v>469</v>
@@ -12812,13 +12810,13 @@
     </row>
     <row r="122" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G122">
         <v>2737</v>
@@ -12859,13 +12857,13 @@
     </row>
     <row r="123" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G123">
         <v>4305</v>
@@ -12906,13 +12904,13 @@
     </row>
     <row r="124" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G124">
         <v>2408</v>
@@ -12953,13 +12951,13 @@
     </row>
     <row r="125" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G125">
         <v>1281</v>
@@ -13000,13 +12998,13 @@
     </row>
     <row r="126" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E126" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s">
         <v>237</v>
-      </c>
-      <c r="F126" t="s">
-        <v>238</v>
       </c>
       <c r="G126">
         <v>12348</v>
@@ -13047,13 +13045,13 @@
     </row>
     <row r="127" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G127">
         <v>3689</v>
@@ -13094,13 +13092,13 @@
     </row>
     <row r="128" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E128" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G128">
         <v>2870</v>
@@ -13141,13 +13139,13 @@
     </row>
     <row r="129" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E129" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G129">
         <v>798</v>
@@ -13188,13 +13186,13 @@
     </row>
     <row r="130" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G130">
         <v>2933</v>
@@ -13235,13 +13233,13 @@
     </row>
     <row r="131" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G131">
         <v>2744</v>
@@ -13282,13 +13280,13 @@
     </row>
     <row r="132" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G132">
         <v>9772</v>
@@ -13329,13 +13327,13 @@
     </row>
     <row r="133" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G133">
         <v>1568</v>
@@ -13376,13 +13374,13 @@
     </row>
     <row r="134" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E134" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G134">
         <v>11417</v>
@@ -13423,13 +13421,13 @@
     </row>
     <row r="135" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G135">
         <v>6748</v>
@@ -13470,13 +13468,13 @@
     </row>
     <row r="136" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G136">
         <v>1407</v>
@@ -13517,13 +13515,13 @@
     </row>
     <row r="137" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
+        <v>235</v>
+      </c>
+      <c r="E137" t="s">
         <v>236</v>
       </c>
-      <c r="E137" t="s">
-        <v>237</v>
-      </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G137">
         <v>2023</v>
@@ -13564,13 +13562,13 @@
     </row>
     <row r="138" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E138" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G138">
         <v>5236</v>
@@ -13611,13 +13609,13 @@
     </row>
     <row r="139" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
+        <v>240</v>
+      </c>
+      <c r="E139" t="s">
         <v>241</v>
       </c>
-      <c r="E139" t="s">
-        <v>242</v>
-      </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G139">
         <v>1925</v>
@@ -13658,13 +13656,13 @@
     </row>
     <row r="140" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
+        <v>250</v>
+      </c>
+      <c r="E140" t="s">
+        <v>233</v>
+      </c>
+      <c r="F140" t="s">
         <v>251</v>
-      </c>
-      <c r="E140" t="s">
-        <v>234</v>
-      </c>
-      <c r="F140" t="s">
-        <v>252</v>
       </c>
       <c r="G140">
         <v>6608</v>
@@ -13705,13 +13703,13 @@
     </row>
     <row r="141" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G141">
         <v>8008</v>
@@ -13752,13 +13750,13 @@
     </row>
     <row r="142" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E142" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G142">
         <v>1428</v>
@@ -13799,13 +13797,13 @@
     </row>
     <row r="143" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G143">
         <v>525</v>
@@ -13846,13 +13844,13 @@
     </row>
     <row r="144" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E144" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G144">
         <v>1505</v>
@@ -13893,13 +13891,13 @@
     </row>
     <row r="145" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F145" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G145">
         <v>6755</v>
@@ -13940,13 +13938,13 @@
     </row>
     <row r="146" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F146" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G146">
         <v>11571</v>
@@ -13987,13 +13985,13 @@
     </row>
     <row r="147" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G147">
         <v>2541</v>
@@ -14034,13 +14032,13 @@
     </row>
     <row r="148" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E148" t="s">
+        <v>233</v>
+      </c>
+      <c r="F148" t="s">
         <v>234</v>
-      </c>
-      <c r="F148" t="s">
-        <v>235</v>
       </c>
       <c r="G148">
         <v>1526</v>
@@ -14081,13 +14079,13 @@
     </row>
     <row r="149" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E149" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G149">
         <v>6125</v>
@@ -14128,13 +14126,13 @@
     </row>
     <row r="150" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G150">
         <v>847</v>
@@ -14175,13 +14173,13 @@
     </row>
     <row r="151" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
+        <v>235</v>
+      </c>
+      <c r="E151" t="s">
         <v>236</v>
       </c>
-      <c r="E151" t="s">
-        <v>237</v>
-      </c>
       <c r="F151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G151">
         <v>4753</v>
@@ -14222,13 +14220,13 @@
     </row>
     <row r="152" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E152" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F152" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G152">
         <v>959</v>
@@ -14269,13 +14267,13 @@
     </row>
     <row r="153" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E153" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F153" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G153">
         <v>2793</v>
@@ -14316,13 +14314,13 @@
     </row>
     <row r="154" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
+        <v>250</v>
+      </c>
+      <c r="E154" t="s">
+        <v>236</v>
+      </c>
+      <c r="F154" t="s">
         <v>251</v>
-      </c>
-      <c r="E154" t="s">
-        <v>237</v>
-      </c>
-      <c r="F154" t="s">
-        <v>252</v>
       </c>
       <c r="G154">
         <v>4606</v>
@@ -14363,13 +14361,13 @@
     </row>
     <row r="155" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F155" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G155">
         <v>5551</v>
@@ -14410,13 +14408,13 @@
     </row>
     <row r="156" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E156" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G156">
         <v>6657</v>
@@ -14457,13 +14455,13 @@
     </row>
     <row r="157" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F157" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G157">
         <v>4438</v>
@@ -14504,13 +14502,13 @@
     </row>
     <row r="158" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E158" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F158" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G158">
         <v>168</v>
@@ -14551,13 +14549,13 @@
     </row>
     <row r="159" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E159" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F159" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G159">
         <v>7777</v>
@@ -14598,13 +14596,13 @@
     </row>
     <row r="160" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E160" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F160" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G160">
         <v>3339</v>
@@ -14645,13 +14643,13 @@
     </row>
     <row r="161" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E161" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F161" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G161">
         <v>6391</v>
@@ -14692,13 +14690,13 @@
     </row>
     <row r="162" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E162" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G162">
         <v>518</v>
@@ -14739,13 +14737,13 @@
     </row>
     <row r="163" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F163" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G163">
         <v>5677</v>
@@ -14786,13 +14784,13 @@
     </row>
     <row r="164" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
+        <v>243</v>
+      </c>
+      <c r="E164" t="s">
         <v>244</v>
       </c>
-      <c r="E164" t="s">
-        <v>245</v>
-      </c>
       <c r="F164" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G164">
         <v>6048</v>
@@ -14833,13 +14831,13 @@
     </row>
     <row r="165" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E165" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G165">
         <v>3752</v>
@@ -14880,13 +14878,13 @@
     </row>
     <row r="166" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E166" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F166" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G166">
         <v>4480</v>
@@ -14927,13 +14925,13 @@
     </row>
     <row r="167" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
+        <v>238</v>
+      </c>
+      <c r="E167" t="s">
+        <v>233</v>
+      </c>
+      <c r="F167" t="s">
         <v>239</v>
-      </c>
-      <c r="E167" t="s">
-        <v>234</v>
-      </c>
-      <c r="F167" t="s">
-        <v>240</v>
       </c>
       <c r="G167">
         <v>259</v>
@@ -14974,13 +14972,13 @@
     </row>
     <row r="168" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E168" t="s">
+        <v>233</v>
+      </c>
+      <c r="F168" t="s">
         <v>234</v>
-      </c>
-      <c r="F168" t="s">
-        <v>235</v>
       </c>
       <c r="G168">
         <v>42</v>
@@ -15021,13 +15019,13 @@
     </row>
     <row r="169" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
+        <v>240</v>
+      </c>
+      <c r="E169" t="s">
         <v>241</v>
       </c>
-      <c r="E169" t="s">
-        <v>242</v>
-      </c>
       <c r="F169" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G169">
         <v>98</v>
@@ -15068,13 +15066,13 @@
     </row>
     <row r="170" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E170" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F170" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G170">
         <v>2478</v>
@@ -15115,13 +15113,13 @@
     </row>
     <row r="171" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G171">
         <v>7847</v>
@@ -15162,13 +15160,13 @@
     </row>
     <row r="172" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F172" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G172">
         <v>9926</v>
@@ -15209,13 +15207,13 @@
     </row>
     <row r="173" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F173" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G173">
         <v>819</v>
@@ -15256,13 +15254,13 @@
     </row>
     <row r="174" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
+        <v>243</v>
+      </c>
+      <c r="E174" t="s">
         <v>244</v>
       </c>
-      <c r="E174" t="s">
-        <v>245</v>
-      </c>
       <c r="F174" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G174">
         <v>3052</v>
@@ -15303,13 +15301,13 @@
     </row>
     <row r="175" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E175" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F175" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G175">
         <v>6832</v>
@@ -15350,13 +15348,13 @@
     </row>
     <row r="176" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F176" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G176">
         <v>2016</v>
@@ -15397,13 +15395,13 @@
     </row>
     <row r="177" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E177" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G177">
         <v>7322</v>
@@ -15444,13 +15442,13 @@
     </row>
     <row r="178" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
+        <v>235</v>
+      </c>
+      <c r="E178" t="s">
         <v>236</v>
       </c>
-      <c r="E178" t="s">
-        <v>237</v>
-      </c>
       <c r="F178" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G178">
         <v>357</v>
@@ -15491,13 +15489,13 @@
     </row>
     <row r="179" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E179" t="s">
+        <v>244</v>
+      </c>
+      <c r="F179" t="s">
         <v>245</v>
-      </c>
-      <c r="F179" t="s">
-        <v>246</v>
       </c>
       <c r="G179">
         <v>3192</v>
@@ -15538,13 +15536,13 @@
     </row>
     <row r="180" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E180" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F180" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G180">
         <v>8435</v>
@@ -15585,13 +15583,13 @@
     </row>
     <row r="181" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E181" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F181" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -15632,13 +15630,13 @@
     </row>
     <row r="182" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D182" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E182" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F182" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G182">
         <v>8862</v>
@@ -15679,13 +15677,13 @@
     </row>
     <row r="183" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D183" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E183" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G183">
         <v>3556</v>
@@ -15726,13 +15724,13 @@
     </row>
     <row r="184" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D184" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E184" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G184">
         <v>7280</v>
@@ -15773,13 +15771,13 @@
     </row>
     <row r="185" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E185" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F185" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G185">
         <v>3402</v>
@@ -15820,13 +15818,13 @@
     </row>
     <row r="186" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F186" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G186">
         <v>4592</v>
@@ -15867,13 +15865,13 @@
     </row>
     <row r="187" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E187" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F187" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G187">
         <v>7833</v>
@@ -15914,13 +15912,13 @@
     </row>
     <row r="188" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F188" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G188">
         <v>7651</v>
@@ -15961,13 +15959,13 @@
     </row>
     <row r="189" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E189" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F189" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G189">
         <v>2275</v>
@@ -16008,13 +16006,13 @@
     </row>
     <row r="190" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E190" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G190">
         <v>5670</v>
@@ -16055,13 +16053,13 @@
     </row>
     <row r="191" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D191" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E191" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F191" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G191">
         <v>2135</v>
@@ -16102,13 +16100,13 @@
     </row>
     <row r="192" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D192" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E192" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G192">
         <v>2779</v>
@@ -16149,13 +16147,13 @@
     </row>
     <row r="193" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E193" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G193">
         <v>12950</v>
@@ -16196,13 +16194,13 @@
     </row>
     <row r="194" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E194" t="s">
+        <v>241</v>
+      </c>
+      <c r="F194" t="s">
         <v>242</v>
-      </c>
-      <c r="F194" t="s">
-        <v>243</v>
       </c>
       <c r="G194">
         <v>2646</v>
@@ -16243,13 +16241,13 @@
     </row>
     <row r="195" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D195" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E195" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F195" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G195">
         <v>3794</v>
@@ -16290,13 +16288,13 @@
     </row>
     <row r="196" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D196" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E196" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F196" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G196">
         <v>819</v>
@@ -16337,13 +16335,13 @@
     </row>
     <row r="197" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D197" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E197" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F197" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G197">
         <v>2583</v>
@@ -16384,13 +16382,13 @@
     </row>
     <row r="198" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D198" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E198" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F198" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G198">
         <v>4585</v>
@@ -16431,13 +16429,13 @@
     </row>
     <row r="199" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D199" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E199" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G199">
         <v>1652</v>
@@ -16478,13 +16476,13 @@
     </row>
     <row r="200" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D200" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E200" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G200">
         <v>4991</v>
@@ -16525,13 +16523,13 @@
     </row>
     <row r="201" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G201">
         <v>2009</v>
@@ -16572,13 +16570,13 @@
     </row>
     <row r="202" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D202" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E202" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F202" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G202">
         <v>1568</v>
@@ -16619,13 +16617,13 @@
     </row>
     <row r="203" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D203" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E203" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F203" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G203">
         <v>3388</v>
@@ -16666,13 +16664,13 @@
     </row>
     <row r="204" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D204" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E204" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F204" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G204">
         <v>623</v>
@@ -16713,13 +16711,13 @@
     </row>
     <row r="205" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D205" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E205" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F205" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G205">
         <v>10073</v>
@@ -16760,13 +16758,13 @@
     </row>
     <row r="206" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D206" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E206" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F206" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G206">
         <v>1561</v>
@@ -16807,13 +16805,13 @@
     </row>
     <row r="207" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D207" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E207" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F207" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G207">
         <v>11522</v>
@@ -16854,13 +16852,13 @@
     </row>
     <row r="208" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D208" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E208" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F208" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G208">
         <v>2317</v>
@@ -16901,13 +16899,13 @@
     </row>
     <row r="209" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D209" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E209" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F209" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G209">
         <v>3059</v>
@@ -16948,13 +16946,13 @@
     </row>
     <row r="210" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E210" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F210" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G210">
         <v>2324</v>
@@ -16995,13 +16993,13 @@
     </row>
     <row r="211" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E211" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F211" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G211">
         <v>4956</v>
@@ -17042,13 +17040,13 @@
     </row>
     <row r="212" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
+        <v>262</v>
+      </c>
+      <c r="E212" t="s">
+        <v>257</v>
+      </c>
+      <c r="F212" t="s">
         <v>263</v>
-      </c>
-      <c r="E212" t="s">
-        <v>258</v>
-      </c>
-      <c r="F212" t="s">
-        <v>264</v>
       </c>
       <c r="G212">
         <v>5355</v>
@@ -17089,13 +17087,13 @@
     </row>
     <row r="213" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D213" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E213" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G213">
         <v>7259</v>
@@ -17136,13 +17134,13 @@
     </row>
     <row r="214" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D214" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E214" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F214" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G214">
         <v>6279</v>
@@ -17183,13 +17181,13 @@
     </row>
     <row r="215" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D215" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E215" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F215" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G215">
         <v>2541</v>
@@ -17230,13 +17228,13 @@
     </row>
     <row r="216" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D216" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E216" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F216" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G216">
         <v>3864</v>
@@ -17277,13 +17275,13 @@
     </row>
     <row r="217" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D217" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E217" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F217" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G217">
         <v>6146</v>
@@ -17324,13 +17322,13 @@
     </row>
     <row r="218" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E218" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F218" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G218">
         <v>2639</v>
@@ -17371,13 +17369,13 @@
     </row>
     <row r="219" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E219" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F219" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G219">
         <v>1890</v>
@@ -17418,13 +17416,13 @@
     </row>
     <row r="220" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
+        <v>250</v>
+      </c>
+      <c r="E220" t="s">
+        <v>257</v>
+      </c>
+      <c r="F220" t="s">
         <v>251</v>
-      </c>
-      <c r="E220" t="s">
-        <v>258</v>
-      </c>
-      <c r="F220" t="s">
-        <v>252</v>
       </c>
       <c r="G220">
         <v>1932</v>
@@ -17465,13 +17463,13 @@
     </row>
     <row r="221" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E221" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F221" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G221">
         <v>6300</v>
@@ -17512,13 +17510,13 @@
     </row>
     <row r="222" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E222" t="s">
+        <v>233</v>
+      </c>
+      <c r="F222" t="s">
         <v>234</v>
-      </c>
-      <c r="F222" t="s">
-        <v>235</v>
       </c>
       <c r="G222">
         <v>560</v>
@@ -17559,13 +17557,13 @@
     </row>
     <row r="223" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D223" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E223" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F223" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G223">
         <v>2856</v>
@@ -17606,13 +17604,13 @@
     </row>
     <row r="224" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D224" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E224" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F224" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G224">
         <v>707</v>
@@ -17653,13 +17651,13 @@
     </row>
     <row r="225" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
+        <v>235</v>
+      </c>
+      <c r="E225" t="s">
         <v>236</v>
       </c>
-      <c r="E225" t="s">
-        <v>237</v>
-      </c>
       <c r="F225" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G225">
         <v>3598</v>
@@ -17700,13 +17698,13 @@
     </row>
     <row r="226" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E226" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F226" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G226">
         <v>6853</v>
@@ -17747,13 +17745,13 @@
     </row>
     <row r="227" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E227" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F227" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G227">
         <v>4725</v>
@@ -17794,13 +17792,13 @@
     </row>
     <row r="228" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D228" t="s">
+        <v>240</v>
+      </c>
+      <c r="E228" t="s">
         <v>241</v>
       </c>
-      <c r="E228" t="s">
-        <v>242</v>
-      </c>
       <c r="F228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G228">
         <v>10304</v>
@@ -17841,13 +17839,13 @@
     </row>
     <row r="229" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D229" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E229" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G229">
         <v>1274</v>
@@ -17888,13 +17886,13 @@
     </row>
     <row r="230" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E230" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G230">
         <v>1526</v>
@@ -17935,13 +17933,13 @@
     </row>
     <row r="231" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F231" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G231">
         <v>3101</v>
@@ -17982,13 +17980,13 @@
     </row>
     <row r="232" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D232" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F232" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G232">
         <v>1057</v>
@@ -18029,13 +18027,13 @@
     </row>
     <row r="233" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F233" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G233">
         <v>5306</v>
@@ -18076,13 +18074,13 @@
     </row>
     <row r="234" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E234" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F234" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G234">
         <v>4018</v>
@@ -18123,13 +18121,13 @@
     </row>
     <row r="235" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D235" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F235" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G235">
         <v>938</v>
@@ -18170,13 +18168,13 @@
     </row>
     <row r="236" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D236" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E236" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G236">
         <v>1778</v>
@@ -18217,13 +18215,13 @@
     </row>
     <row r="237" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D237" t="s">
+        <v>243</v>
+      </c>
+      <c r="E237" t="s">
         <v>244</v>
       </c>
-      <c r="E237" t="s">
-        <v>245</v>
-      </c>
       <c r="F237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G237">
         <v>1638</v>
@@ -18264,13 +18262,13 @@
     </row>
     <row r="238" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E238" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F238" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G238">
         <v>154</v>
@@ -18311,13 +18309,13 @@
     </row>
     <row r="239" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D239" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F239" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G239">
         <v>9835</v>
@@ -18358,13 +18356,13 @@
     </row>
     <row r="240" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E240" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F240" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G240">
         <v>7273</v>
@@ -18405,13 +18403,13 @@
     </row>
     <row r="241" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E241" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F241" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G241">
         <v>6909</v>
@@ -18452,13 +18450,13 @@
     </row>
     <row r="242" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D242" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F242" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G242">
         <v>3920</v>
@@ -18499,13 +18497,13 @@
     </row>
     <row r="243" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D243" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F243" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G243">
         <v>4858</v>
@@ -18546,13 +18544,13 @@
     </row>
     <row r="244" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D244" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G244">
         <v>3549</v>
@@ -18593,13 +18591,13 @@
     </row>
     <row r="245" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D245" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E245" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F245" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G245">
         <v>966</v>
@@ -18640,13 +18638,13 @@
     </row>
     <row r="246" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F246" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G246">
         <v>385</v>
@@ -18687,13 +18685,13 @@
     </row>
     <row r="247" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D247" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E247" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F247" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G247">
         <v>2219</v>
@@ -18734,13 +18732,13 @@
     </row>
     <row r="248" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D248" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E248" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F248" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G248">
         <v>2954</v>
@@ -18781,13 +18779,13 @@
     </row>
     <row r="249" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F249" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G249">
         <v>280</v>
@@ -18828,13 +18826,13 @@
     </row>
     <row r="250" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D250" t="s">
+        <v>240</v>
+      </c>
+      <c r="E250" t="s">
         <v>241</v>
       </c>
-      <c r="E250" t="s">
-        <v>242</v>
-      </c>
       <c r="F250" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G250">
         <v>6118</v>
@@ -18875,13 +18873,13 @@
     </row>
     <row r="251" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E251" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G251">
         <v>4802</v>
@@ -18922,13 +18920,13 @@
     </row>
     <row r="252" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D252" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F252" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G252">
         <v>4137</v>
@@ -18969,13 +18967,13 @@
     </row>
     <row r="253" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F253" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G253">
         <v>2023</v>
@@ -19016,13 +19014,13 @@
     </row>
     <row r="254" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D254" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E254" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F254" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G254">
         <v>9051</v>
@@ -19063,13 +19061,13 @@
     </row>
     <row r="255" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E255" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F255" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G255">
         <v>2919</v>
@@ -19110,13 +19108,13 @@
     </row>
     <row r="256" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F256" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G256">
         <v>5915</v>
@@ -19157,13 +19155,13 @@
     </row>
     <row r="257" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E257" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F257" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G257">
         <v>2562</v>
@@ -19204,13 +19202,13 @@
     </row>
     <row r="258" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D258" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E258" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F258" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G258">
         <v>8813</v>
@@ -19251,13 +19249,13 @@
     </row>
     <row r="259" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D259" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E259" t="s">
+        <v>241</v>
+      </c>
+      <c r="F259" t="s">
         <v>242</v>
-      </c>
-      <c r="F259" t="s">
-        <v>243</v>
       </c>
       <c r="G259">
         <v>6111</v>
@@ -19298,13 +19296,13 @@
     </row>
     <row r="260" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D260" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F260" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G260">
         <v>3507</v>
@@ -19345,13 +19343,13 @@
     </row>
     <row r="261" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D261" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E261" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G261">
         <v>4319</v>
@@ -19392,13 +19390,13 @@
     </row>
     <row r="262" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E262" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F262" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G262">
         <v>609</v>
@@ -19439,13 +19437,13 @@
     </row>
     <row r="263" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D263" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E263" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F263" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G263">
         <v>6370</v>
@@ -19486,13 +19484,13 @@
     </row>
     <row r="264" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D264" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G264">
         <v>5474</v>
@@ -19533,13 +19531,13 @@
     </row>
     <row r="265" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D265" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E265" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G265">
         <v>3164</v>
@@ -19580,13 +19578,13 @@
     </row>
     <row r="266" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D266" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E266" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F266" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G266">
         <v>1302</v>
@@ -19627,13 +19625,13 @@
     </row>
     <row r="267" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D267" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E267" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G267">
         <v>7308</v>
@@ -19674,13 +19672,13 @@
     </row>
     <row r="268" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D268" t="s">
+        <v>232</v>
+      </c>
+      <c r="E268" t="s">
         <v>233</v>
       </c>
-      <c r="E268" t="s">
-        <v>234</v>
-      </c>
       <c r="F268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G268">
         <v>6132</v>
@@ -19721,13 +19719,13 @@
     </row>
     <row r="269" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D269" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E269" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F269" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G269">
         <v>3472</v>
@@ -19768,13 +19766,13 @@
     </row>
     <row r="270" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D270" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E270" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F270" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G270">
         <v>9660</v>
@@ -19815,13 +19813,13 @@
     </row>
     <row r="271" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D271" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E271" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G271">
         <v>2436</v>
@@ -19862,13 +19860,13 @@
     </row>
     <row r="272" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D272" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E272" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F272" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G272">
         <v>9506</v>
@@ -19909,13 +19907,13 @@
     </row>
     <row r="273" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D273" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E273" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F273" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G273">
         <v>245</v>
@@ -19956,13 +19954,13 @@
     </row>
     <row r="274" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D274" t="s">
+        <v>235</v>
+      </c>
+      <c r="E274" t="s">
         <v>236</v>
       </c>
-      <c r="E274" t="s">
-        <v>237</v>
-      </c>
       <c r="F274" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G274">
         <v>2702</v>
@@ -20003,13 +20001,13 @@
     </row>
     <row r="275" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D275" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E275" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F275" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G275">
         <v>700</v>
@@ -20050,13 +20048,13 @@
     </row>
     <row r="276" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D276" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E276" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F276" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G276">
         <v>3759</v>
@@ -20097,13 +20095,13 @@
     </row>
     <row r="277" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D277" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E277" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F277" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G277">
         <v>1589</v>
@@ -20144,13 +20142,13 @@
     </row>
     <row r="278" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D278" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E278" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F278" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G278">
         <v>5194</v>
@@ -20191,13 +20189,13 @@
     </row>
     <row r="279" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D279" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E279" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F279" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G279">
         <v>945</v>
@@ -20238,13 +20236,13 @@
     </row>
     <row r="280" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D280" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E280" t="s">
+        <v>247</v>
+      </c>
+      <c r="F280" t="s">
         <v>248</v>
-      </c>
-      <c r="F280" t="s">
-        <v>249</v>
       </c>
       <c r="G280">
         <v>1988</v>
@@ -20285,13 +20283,13 @@
     </row>
     <row r="281" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D281" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E281" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F281" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G281">
         <v>6734</v>
@@ -20332,13 +20330,13 @@
     </row>
     <row r="282" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D282" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F282" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G282">
         <v>217</v>
@@ -20379,13 +20377,13 @@
     </row>
     <row r="283" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D283" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E283" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F283" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G283">
         <v>6279</v>
@@ -20426,13 +20424,13 @@
     </row>
     <row r="284" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F284" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G284">
         <v>4424</v>
@@ -20473,13 +20471,13 @@
     </row>
     <row r="285" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F285" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G285">
         <v>189</v>
@@ -20520,13 +20518,13 @@
     </row>
     <row r="286" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E286" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F286" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G286">
         <v>490</v>
@@ -20567,13 +20565,13 @@
     </row>
     <row r="287" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D287" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E287" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F287" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G287">
         <v>434</v>
@@ -20614,13 +20612,13 @@
     </row>
     <row r="288" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D288" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E288" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F288" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G288">
         <v>10129</v>
@@ -20661,13 +20659,13 @@
     </row>
     <row r="289" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D289" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E289" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F289" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G289">
         <v>1652</v>
@@ -20708,13 +20706,13 @@
     </row>
     <row r="290" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E290" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F290" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G290">
         <v>6433</v>
@@ -20755,13 +20753,13 @@
     </row>
     <row r="291" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D291" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E291" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F291" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G291">
         <v>2212</v>
@@ -20802,13 +20800,13 @@
     </row>
     <row r="292" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D292" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E292" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F292" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G292">
         <v>609</v>
@@ -20849,13 +20847,13 @@
     </row>
     <row r="293" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E293" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F293" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G293">
         <v>1638</v>
@@ -20896,13 +20894,13 @@
     </row>
     <row r="294" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D294" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E294" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F294" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G294">
         <v>3829</v>
@@ -20943,13 +20941,13 @@
     </row>
     <row r="295" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E295" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F295" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G295">
         <v>5775</v>
@@ -20990,13 +20988,13 @@
     </row>
     <row r="296" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E296" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F296" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G296">
         <v>1071</v>
@@ -21037,13 +21035,13 @@
     </row>
     <row r="297" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E297" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F297" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G297">
         <v>5019</v>
@@ -21084,13 +21082,13 @@
     </row>
     <row r="298" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D298" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E298" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F298" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G298">
         <v>2863</v>
@@ -21131,13 +21129,13 @@
     </row>
     <row r="299" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D299" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E299" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F299" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G299">
         <v>1617</v>
@@ -21178,13 +21176,13 @@
     </row>
     <row r="300" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E300" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F300" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G300">
         <v>6818</v>
@@ -21225,13 +21223,13 @@
     </row>
     <row r="301" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D301" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E301" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F301" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G301">
         <v>6657</v>
@@ -21272,13 +21270,13 @@
     </row>
     <row r="302" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
+        <v>254</v>
+      </c>
+      <c r="E302" t="s">
+        <v>257</v>
+      </c>
+      <c r="F302" t="s">
         <v>255</v>
-      </c>
-      <c r="E302" t="s">
-        <v>258</v>
-      </c>
-      <c r="F302" t="s">
-        <v>256</v>
       </c>
       <c r="G302">
         <v>2919</v>
@@ -21319,13 +21317,13 @@
     </row>
     <row r="303" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D303" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E303" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F303" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G303">
         <v>3094</v>
@@ -21366,13 +21364,13 @@
     </row>
     <row r="304" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D304" t="s">
+        <v>243</v>
+      </c>
+      <c r="E304" t="s">
         <v>244</v>
       </c>
-      <c r="E304" t="s">
-        <v>245</v>
-      </c>
       <c r="F304" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G304">
         <v>2989</v>
@@ -21413,13 +21411,13 @@
     </row>
     <row r="305" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E305" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F305" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G305">
         <v>2268</v>
@@ -21460,13 +21458,13 @@
     </row>
     <row r="306" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E306" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F306" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G306">
         <v>4753</v>
@@ -21507,13 +21505,13 @@
     </row>
     <row r="307" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E307" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F307" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G307">
         <v>7511</v>
@@ -21554,13 +21552,13 @@
     </row>
     <row r="308" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E308" t="s">
+        <v>247</v>
+      </c>
+      <c r="F308" t="s">
         <v>248</v>
-      </c>
-      <c r="F308" t="s">
-        <v>249</v>
       </c>
       <c r="G308">
         <v>4326</v>
@@ -21601,13 +21599,13 @@
     </row>
     <row r="309" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D309" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E309" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F309" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G309">
         <v>4935</v>
@@ -21648,13 +21646,13 @@
     </row>
     <row r="310" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D310" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E310" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F310" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G310">
         <v>4781</v>
@@ -21695,13 +21693,13 @@
     </row>
     <row r="311" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D311" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E311" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F311" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G311">
         <v>7483</v>
@@ -21742,13 +21740,13 @@
     </row>
     <row r="312" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D312" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E312" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F312" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G312">
         <v>6860</v>
@@ -21789,13 +21787,13 @@
     </row>
     <row r="313" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D313" t="s">
+        <v>232</v>
+      </c>
+      <c r="E313" t="s">
         <v>233</v>
       </c>
-      <c r="E313" t="s">
-        <v>234</v>
-      </c>
       <c r="F313" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G313">
         <v>9002</v>
@@ -21836,13 +21834,13 @@
     </row>
     <row r="314" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E314" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F314" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G314">
         <v>1400</v>
@@ -21883,13 +21881,13 @@
     </row>
     <row r="315" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D315" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E315" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F315" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G315">
         <v>4053</v>
@@ -21930,13 +21928,13 @@
     </row>
     <row r="316" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D316" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E316" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F316" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G316">
         <v>2149</v>
@@ -21977,13 +21975,13 @@
     </row>
     <row r="317" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D317" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E317" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F317" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G317">
         <v>3640</v>
@@ -22024,13 +22022,13 @@
     </row>
     <row r="318" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D318" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E318" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F318" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G318">
         <v>630</v>
@@ -22071,13 +22069,13 @@
     </row>
     <row r="319" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D319" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E319" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F319" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G319">
         <v>2429</v>
@@ -22118,13 +22116,13 @@
     </row>
     <row r="320" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E320" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F320" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G320">
         <v>2142</v>
@@ -22165,13 +22163,13 @@
     </row>
     <row r="321" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D321" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E321" t="s">
+        <v>233</v>
+      </c>
+      <c r="F321" t="s">
         <v>234</v>
-      </c>
-      <c r="F321" t="s">
-        <v>235</v>
       </c>
       <c r="G321">
         <v>6454</v>
@@ -22212,13 +22210,13 @@
     </row>
     <row r="322" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D322" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E322" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F322" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G322">
         <v>4487</v>
@@ -22259,13 +22257,13 @@
     </row>
     <row r="323" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D323" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E323" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F323" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G323">
         <v>938</v>
@@ -22306,13 +22304,13 @@
     </row>
     <row r="324" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D324" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E324" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F324" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G324">
         <v>8841</v>
@@ -22353,13 +22351,13 @@
     </row>
     <row r="325" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D325" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E325" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F325" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G325">
         <v>4018</v>
@@ -22400,13 +22398,13 @@
     </row>
     <row r="326" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D326" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E326" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F326" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G326">
         <v>714</v>
@@ -22447,13 +22445,13 @@
     </row>
     <row r="327" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E327" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F327" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G327">
         <v>3850</v>
@@ -22504,7 +22502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502CC579-E185-4B45-A3D9-BB42D6BEDD45}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -22521,7 +22519,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xll.RScript.Evaluate(B2)</f>
@@ -22537,7 +22535,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xll.RScript.Evaluate(B3)</f>
@@ -22550,7 +22548,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">_xll.RScript.Evaluate(B4)</f>
@@ -22563,7 +22561,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" ref="D6">_xll.RScript.Evaluate(B6)</f>
@@ -22580,7 +22578,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" ref="D7">_xll.RScript.Evaluate(B7)</f>
@@ -22668,11 +22666,11 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G3:G34" si="1">IMREAL(C4)</f>
+        <f t="shared" ref="G4:G34" si="1">IMREAL(C4)</f>
         <v>0.25850000000000001</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H34" si="2">IMAGINARY(C4)</f>
+        <f t="shared" ref="H4:H34" si="2">IMAGINARY(C4)</f>
         <v>0.53879999999999995</v>
       </c>
       <c r="J4" t="str">
@@ -27443,52 +27441,69 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167319B1-CDAA-43C4-91A4-FB470A4636F2}">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>120</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2">_xll.RScript.CreateMatrix(B2,B3:C4)</f>
-        <v>Exception: Unrecognized matrix type.</v>
-      </c>
-      <c r="H2" t="s">
+        <f t="array" ref="C2">_xll.RScript.CreateMatrix(B2,B3:C4, "complex")</f>
+        <v>A</v>
+      </c>
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2">_xll.RScript.CreateMatrix("B",H3:I4,"character")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>123</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>124</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="9" t="str">
+        <f>COMPLEX(IMREAL(H3), IMAGINARY(H3))</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="9" t="str">
+        <f>COMPLEX(IMREAL(I3), IMAGINARY(I3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>127</v>
       </c>
-      <c r="H4" t="s">
-        <v>128</v>
-      </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f>COMPLEX(IMREAL(H4), IMAGINARY(H4))</f>
+        <v>4+3i</v>
+      </c>
+      <c r="L4" s="9" t="str">
+        <f>COMPLEX(IMREAL(I4), IMAGINARY(I4))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27500,8 +27515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD336D55-5F31-4FE9-B37C-75EEC4381E9A}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27512,37 +27527,16 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2:J2">TRANSPOSE(_xll.RScript.Evaluate(B2))</f>
-        <v>complexplus</v>
-      </c>
-      <c r="D2" t="str">
-        <v>stats</v>
-      </c>
-      <c r="E2" t="str">
-        <v>graphics</v>
-      </c>
-      <c r="F2" t="str">
-        <v>grDevices</v>
-      </c>
-      <c r="G2" t="str">
-        <v>utils</v>
-      </c>
-      <c r="H2" t="str">
-        <v>datasets</v>
-      </c>
-      <c r="I2" t="str">
-        <v>methods</v>
-      </c>
-      <c r="J2" t="str">
-        <v>base</v>
+        <f t="array" ref="C2">TRANSPOSE(_xll.RScript.Evaluate(B2, TRUE))</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" ref="E5">_xll.RScript.Evaluate(B5)</f>
@@ -27559,7 +27553,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" ref="E6:F7">_xll.RScript.Evaluate(E5)</f>
@@ -27585,7 +27579,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" t="str">
         <v>2+0i</v>
@@ -27608,7 +27602,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" t="str" cm="1">
         <f t="array" ref="C9">_xll.RScript.Evaluate(B9)</f>
@@ -27617,7 +27611,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" t="str" cm="1">
         <f t="array" ref="C11">_xll.RScript.Evaluate(B11)</f>

--- a/ExcelRAddIn/Tests/R Types Tests.xlsx
+++ b/ExcelRAddIn/Tests/R Types Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4058FA-409E-40EF-B110-9A01ED6561A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D96B91-A8A0-49D2-B6D6-5626EB00057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" firstSheet="2" activeTab="8" xr2:uid="{5877FA5A-76F9-4C4A-95F7-F8E57366BB43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" firstSheet="10" activeTab="19" xr2:uid="{5877FA5A-76F9-4C4A-95F7-F8E57366BB43}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Types" sheetId="18" r:id="rId1"/>
@@ -1041,9 +1041,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1081,7 +1081,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1187,7 +1187,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1329,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1340,7 +1340,7 @@
   <dimension ref="B1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,43 +1397,43 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">_xll.RScript.Evaluate($E$2&amp;"["&amp;F1&amp;"]")</f>
-        <v>-1.0579444978294112</v>
+        <v>-1.1880159611636512</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">_xll.RScript.Evaluate($E$2&amp;"["&amp;G1&amp;"]")</f>
-        <v>-0.34675700843334811</v>
+        <v>-0.14831709096571422</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">_xll.RScript.Evaluate($E$2&amp;"["&amp;H1&amp;"]")</f>
-        <v>-1.3914632267915907</v>
+        <v>0.39898072850752042</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">_xll.RScript.Evaluate($E$2&amp;"["&amp;I1&amp;"]")</f>
-        <v>-0.51979432070762666</v>
+        <v>0.12325104199573529</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">_xll.RScript.Evaluate($E$2&amp;"["&amp;J1&amp;"]")</f>
-        <v>-0.26026432623747425</v>
+        <v>0.66194300195975542</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">_xll.RScript.Evaluate($E$2&amp;"["&amp;K1&amp;"]")</f>
-        <v>-1.8307278764434405</v>
+        <v>0.66681371838657433</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">_xll.RScript.Evaluate($E$2&amp;"["&amp;L1&amp;"]")</f>
-        <v>1.038726491394004</v>
+        <v>-1.5209845574473024</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">_xll.RScript.Evaluate($E$2&amp;"["&amp;M1&amp;"]")</f>
-        <v>0.24997500890044486</v>
+        <v>-0.19923384758078849</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">_xll.RScript.Evaluate($E$2&amp;"["&amp;N1&amp;"]")</f>
-        <v>0.2799300143278371</v>
+        <v>0.20190649829949189</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">_xll.RScript.Evaluate($E$2&amp;"["&amp;O1&amp;"]")</f>
-        <v>-0.49092292086657291</v>
+        <v>-0.44047867839884547</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -1553,43 +1553,43 @@
       </c>
       <c r="F5" t="str" cm="1">
         <f t="array" ref="F5">_xll.RScript.Evaluate($E$5&amp;"["&amp;F1&amp;"]")</f>
-        <v>-0.44253884643939-0.570844745935023i</v>
+        <v>-0.333705621073604+0.639802141545883i</v>
       </c>
       <c r="G5" t="str" cm="1">
         <f t="array" ref="G5">_xll.RScript.Evaluate($E$5&amp;"["&amp;G1&amp;"]")</f>
-        <v>1.81416921323255-1.15830725379693i</v>
+        <v>0.462919588283699-0.700618026485648i</v>
       </c>
       <c r="H5" t="str" cm="1">
         <f t="array" ref="H5">_xll.RScript.Evaluate($E$5&amp;"["&amp;H1&amp;"]")</f>
-        <v>0.281303416294633-0.446452058394078i</v>
+        <v>0.376810911043259+2.25697250809625i</v>
       </c>
       <c r="I5" t="str" cm="1">
         <f t="array" ref="I5">_xll.RScript.Evaluate($E$5&amp;"["&amp;I1&amp;"]")</f>
-        <v>-0.172986034907509-0.164156818046041i</v>
+        <v>0.534028526624503+1.22188980902137i</v>
       </c>
       <c r="J5" t="str" cm="1">
         <f t="array" ref="J5">_xll.RScript.Evaluate($E$5&amp;"["&amp;J1&amp;"]")</f>
-        <v>0.508322077700328-1.17624575213297i</v>
+        <v>2.36514333388565-0.401828513903769i</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" ref="K5">_xll.RScript.Evaluate($E$5&amp;"["&amp;K1&amp;"]")</f>
-        <v>0.643853528270414-0.814292700875728i</v>
+        <v>-0.17272202036455+0.368944610077771i</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" ref="L5">_xll.RScript.Evaluate($E$5&amp;"["&amp;L1&amp;"]")</f>
-        <v>0.574058130524811-1.70537384139491i</v>
+        <v>0.0241603518073429-0.866381113796704i</v>
       </c>
       <c r="M5" t="str" cm="1">
         <f t="array" ref="M5">_xll.RScript.Evaluate($E$5&amp;"["&amp;M1&amp;"]")</f>
-        <v>-1.02849697179285-0.632795168208102i</v>
+        <v>-0.0831477635497377-0.88714291903732i</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">_xll.RScript.Evaluate($E$5&amp;"["&amp;N1&amp;"]")</f>
-        <v>0.79420057598073+0.479990556664285i</v>
+        <v>-0.193696321186678+0.314861612732435i</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">_xll.RScript.Evaluate($E$5&amp;"["&amp;O1&amp;"]")</f>
-        <v>-0.477098313745436-0.710496534414749i</v>
+        <v>-2.19699868926359-1.79484425996288i</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
@@ -7870,7 +7870,7 @@
   <dimension ref="D2:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8109,8 +8109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5F1B9E-7F32-4C1B-AD03-048C852061EA}">
   <dimension ref="B2:T327"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8340,7 +8340,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" t="str" cm="1">
-        <f t="array" ref="B27">_xll.RScript.CreateDataFrame("sales", TableSalesData[], TableSalesData[#Headers], D25:J25)</f>
+        <f t="array" ref="B27">_xll.RScript.CreateDataFrame("sales", TableSalesData[], TableSalesData[#Headers])</f>
         <v>sales</v>
       </c>
       <c r="D27" t="s">
@@ -22599,10 +22599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE3A425-1B3A-48E4-81F6-708C847B230F}">
-  <dimension ref="C2:N102"/>
+  <dimension ref="C1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22611,9 +22611,12 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+    </row>
     <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2">_xll.RScript.CreateVector("vcplx1", C3:C102, "Complex")</f>
+        <f t="array" ref="C2">_xll.RScript.CreateVector("vcplx1", C3:C102)</f>
         <v>vcplx1</v>
       </c>
       <c r="G2" t="s">
@@ -27515,7 +27518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD336D55-5F31-4FE9-B37C-75EEC4381E9A}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
